--- a/tableau calcul.xlsx
+++ b/tableau calcul.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\TP_VHDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{034E8567-D351-4526-9019-5CFE780B1935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F1D4B-B442-4BF3-B4FE-25C73C24897D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21697" yWindow="-3195" windowWidth="21795" windowHeight="12975" xr2:uid="{50BC2487-D14E-467D-B373-6858C44F5D57}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{50BC2487-D14E-467D-B373-6858C44F5D57}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -433,12 +433,12 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -501,7 +501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -512,7 +512,7 @@
         <v>4081</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E17" si="0">A3*(B3+C3)</f>
+        <f t="shared" ref="E3:E16" si="0">A3*(B3+C3)</f>
         <v>4082</v>
       </c>
       <c r="F3" s="1" t="str">
@@ -524,7 +524,7 @@
         <v>8470682</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I17" si="2">DEC2HEX(H3)</f>
+        <f>DEC2HEX(H3)</f>
         <v>81409A</v>
       </c>
       <c r="J3" t="s">
@@ -535,7 +535,7 @@
         <v>2A2B690</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -550,7 +550,7 @@
         <v>8168</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2HEX(E4)</f>
         <v>1FE8</v>
       </c>
       <c r="H4">
@@ -558,11 +558,11 @@
         <v>8524060</v>
       </c>
       <c r="I4" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I3:I17" si="2">DEC2HEX(H4)</f>
         <v>82111C</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -585,11 +585,11 @@
         <v>8573308</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(H5)</f>
         <v>82D17C</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -616,7 +616,7 @@
         <v>8381BE</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -639,11 +639,11 @@
         <v>8659430</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(H7)</f>
         <v>8421E6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -658,7 +658,7 @@
         <v>24552</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2HEX(E8)</f>
         <v>5FE8</v>
       </c>
       <c r="H8">
@@ -670,7 +670,7 @@
         <v>84B1F8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -685,7 +685,7 @@
         <v>28658</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2HEX(E9)</f>
         <v>6FF2</v>
       </c>
       <c r="H9">
@@ -693,11 +693,11 @@
         <v>8729080</v>
       </c>
       <c r="I9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(H9)</f>
         <v>8531F8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -724,7 +724,7 @@
         <v>85A1EA</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -751,7 +751,7 @@
         <v>8601D2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -766,7 +766,7 @@
         <v>41000</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2HEX(E12)</f>
         <v>A028</v>
       </c>
       <c r="H12">
@@ -778,7 +778,7 @@
         <v>8651B4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -805,7 +805,7 @@
         <v>869194</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -832,7 +832,7 @@
         <v>86C176</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -855,11 +855,11 @@
         <v>8839518</v>
       </c>
       <c r="I15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(H15)</f>
         <v>86E15E</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -882,11 +882,11 @@
         <v>8843600</v>
       </c>
       <c r="I16" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>DEC2HEX(H16)</f>
         <v>86F150</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2047</v>
       </c>
@@ -913,7 +913,7 @@
         <v>86F150</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f>DEC2HEX(A2)</f>
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>FF0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f t="shared" ref="A22:C36" si="3">DEC2HEX(A3)</f>
         <v>1</v>
@@ -941,7 +941,7 @@
         <v>FF1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -955,7 +955,7 @@
         <v>FF2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="str">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -969,7 +969,7 @@
         <v>FF3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="str">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -983,7 +983,7 @@
         <v>FF4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="str">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -997,7 +997,7 @@
         <v>FF5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="str">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -1011,7 +1011,7 @@
         <v>FF6</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="str">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -1025,7 +1025,7 @@
         <v>FF7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="str">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -1039,7 +1039,7 @@
         <v>FF8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="str">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -1053,7 +1053,7 @@
         <v>FF9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
@@ -1067,7 +1067,7 @@
         <v>FFA</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
@@ -1081,7 +1081,7 @@
         <v>FFB</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
@@ -1095,7 +1095,7 @@
         <v>FFC</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="str">
         <f t="shared" si="3"/>
         <v>D</v>
@@ -1109,7 +1109,7 @@
         <v>FFD</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="str">
         <f t="shared" si="3"/>
         <v>E</v>
@@ -1123,7 +1123,7 @@
         <v>FFE</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="str">
         <f t="shared" si="3"/>
         <v>7FF</v>
